--- a/data/trans_dic/P36BPD01_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9282473217192</v>
+        <v>0.9282473217192002</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9419358285106891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9362754797547679</v>
+        <v>0.9362754797547675</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9027124063370398</v>
+        <v>0.9067243018067159</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9275082303514141</v>
+        <v>0.9265890959148471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9240285446314201</v>
+        <v>0.9235263812404251</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9471101022085838</v>
+        <v>0.9490330060963973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9531545931094897</v>
+        <v>0.9541562474078129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9475227043455017</v>
+        <v>0.9476003856149604</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9307487167299372</v>
+        <v>0.9307487167299374</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.9409789083195103</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9158348275754888</v>
+        <v>0.9155474617349075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.931273075143868</v>
+        <v>0.9311832027484859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9265665388841061</v>
+        <v>0.9264878852489258</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9423468113351546</v>
+        <v>0.9422377010297643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9505084824239541</v>
+        <v>0.951181633611961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9439377346353524</v>
+        <v>0.9436545468590041</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9622762208643704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9664328723333362</v>
+        <v>0.9664328723333361</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9543941331013597</v>
+        <v>0.9538999915953679</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9456935642003932</v>
+        <v>0.9437017627833665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9553296335435975</v>
+        <v>0.954595860277705</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9832612733112627</v>
+        <v>0.9817927353533893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9744193325152758</v>
+        <v>0.9740823781405762</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9757319582920385</v>
+        <v>0.9764805838178685</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.9384368612972477</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9453959051108397</v>
+        <v>0.9453959051108395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9420210890680198</v>
+        <v>0.9420210890680197</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9285618197575993</v>
+        <v>0.9275591939409364</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9382780366130951</v>
+        <v>0.937158879934883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9357580174874229</v>
+        <v>0.9359746681662934</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9481933094555245</v>
+        <v>0.9471439531921556</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9522971328713397</v>
+        <v>0.9516574468215607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9474280517854261</v>
+        <v>0.9476578546958282</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>521354</v>
+        <v>523671</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>759755</v>
+        <v>759002</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1290570</v>
+        <v>1289869</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>546996</v>
+        <v>548106</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>780763</v>
+        <v>781584</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1323384</v>
+        <v>1323493</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2029650</v>
+        <v>2029013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2017869</v>
+        <v>2017675</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4061105</v>
+        <v>4060760</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>2088405</v>
+        <v>2088164</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2059548</v>
+        <v>2061007</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4137242</v>
+        <v>4136001</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>677326</v>
+        <v>676975</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>694968</v>
+        <v>693505</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1380040</v>
+        <v>1378980</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>697813</v>
+        <v>696770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>716078</v>
+        <v>715831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1409512</v>
+        <v>1410594</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3253132</v>
+        <v>3249619</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3491145</v>
+        <v>3486981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6760111</v>
+        <v>6761676</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3321909</v>
+        <v>3318233</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3543307</v>
+        <v>3540927</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6844417</v>
+        <v>6846077</v>
       </c>
     </row>
     <row r="20">
